--- a/PCE1.xlsx
+++ b/PCE1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12913\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_software\CV_paper_code\ML-NP-design_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E928B87B-9DD2-41E4-AC23-5E7C783C4EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517DA44C-7976-4603-8AC2-731182201A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{1B33A133-5638-431B-9761-222F298B4AE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>Element</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,26 +53,6 @@
   </si>
   <si>
     <t>Ge</t>
-  </si>
-  <si>
-    <t>C0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Sb</t>
@@ -100,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +99,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -481,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1899E3D5-4575-4475-AA9F-944315CC82B9}">
-  <dimension ref="A1:D16384"/>
+  <dimension ref="A1:E16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -494,7 +467,7 @@
     <col min="4" max="4" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -518,11 +491,11 @@
       <c r="C2" s="1">
         <v>0.90462682463850663</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="D2" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -532,11 +505,12 @@
       <c r="C3" s="1">
         <v>0.9932321410579672</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+      <c r="D3" s="2">
+        <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -546,11 +520,12 @@
       <c r="C4" s="1">
         <v>1.0365747049842304</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
+      <c r="D4" s="2">
+        <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -560,11 +535,12 @@
       <c r="C5" s="1">
         <v>1.018576991596849</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
+      <c r="D5" s="2">
+        <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,22 +550,22 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>1.0070625807235365</v>
@@ -597,13 +573,13 @@
       <c r="C9" s="1">
         <v>0.94341146750108706</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
+      <c r="D9" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>0.99750153132186026</v>
@@ -611,13 +587,13 @@
       <c r="C10" s="1">
         <v>0.9381053109860632</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
+      <c r="D10" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>0.98114243466449846</v>
@@ -625,13 +601,13 @@
       <c r="C11" s="1">
         <v>0.96704120262323368</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
+      <c r="D11" s="2">
+        <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -639,31 +615,23 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
+      <c r="D12" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>1.0831597214186321</v>
@@ -671,13 +639,13 @@
       <c r="C15" s="1">
         <v>1.0288908566118857</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
+      <c r="D15" s="2">
+        <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>1.0840228102548626</v>
@@ -685,13 +653,13 @@
       <c r="C16" s="1">
         <v>0.99954556447551823</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
+      <c r="D16" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -699,8 +667,8 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
+      <c r="D17" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -709,7 +677,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
         <v>1.0180130494444115</v>
@@ -717,13 +685,13 @@
       <c r="C19" s="1">
         <v>0.98833654949011129</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
+      <c r="D19" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
         <v>1.0213214790200975</v>
@@ -731,13 +699,13 @@
       <c r="C20" s="1">
         <v>0.94712134947212567</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
+      <c r="D20" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
         <v>1.0127651153279462</v>
@@ -745,13 +713,13 @@
       <c r="C21" s="1">
         <v>0.96890243834576628</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
+      <c r="D21" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -759,8 +727,8 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
+      <c r="D22" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -768,22 +736,14 @@
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1">
         <v>0.94460205732920899</v>
@@ -791,13 +751,13 @@
       <c r="C25" s="1">
         <v>0.88148488508896827</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
+      <c r="D25" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
         <v>0.9264934940399624</v>
@@ -805,13 +765,13 @@
       <c r="C26" s="1">
         <v>0.82447164930377026</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
+      <c r="D26" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -819,8 +779,8 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
+      <c r="D27" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -829,7 +789,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
         <v>0.74484007631675575</v>
@@ -837,13 +797,13 @@
       <c r="C29" s="1">
         <v>0.63001957826071042</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
+      <c r="D29" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1">
         <v>0.83094727755121034</v>
@@ -851,13 +811,13 @@
       <c r="C30" s="1">
         <v>0.63830084994124825</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>7</v>
+      <c r="D30" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
         <v>0.79860310492482622</v>
@@ -865,13 +825,13 @@
       <c r="C31" s="1">
         <v>0.61805644509330271</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
+      <c r="D31" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -879,8 +839,8 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
+      <c r="D32" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -889,7 +849,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1">
         <v>0.98312851712412463</v>
@@ -897,13 +857,13 @@
       <c r="C34" s="1">
         <v>0.9227271452996143</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
+      <c r="D34" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1">
         <v>1.017142042361977</v>
@@ -911,13 +871,13 @@
       <c r="C35" s="1">
         <v>0.82070490964160325</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>7</v>
+      <c r="D35" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1">
         <v>0.90789073903175177</v>
@@ -925,13 +885,13 @@
       <c r="C36" s="1">
         <v>0.70709236349578974</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
+      <c r="D36" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -939,8 +899,8 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
+      <c r="D37" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -949,7 +909,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1">
         <v>0.97334249637441861</v>
@@ -957,13 +917,13 @@
       <c r="C39" s="1">
         <v>0.9036127900752704</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>6</v>
+      <c r="D39" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1">
         <v>0.99392481293361701</v>
@@ -971,13 +931,13 @@
       <c r="C40" s="1">
         <v>0.8913980907779876</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
+      <c r="D40" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1">
         <v>1.0080383881233761</v>
@@ -985,13 +945,13 @@
       <c r="C41" s="1">
         <v>0.90419681366226479</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
+      <c r="D41" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -999,8 +959,8 @@
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
+      <c r="D42" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1009,7 +969,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1">
         <v>0.82393823232314878</v>
@@ -1017,13 +977,13 @@
       <c r="C44" s="1">
         <v>0.68652062101989886</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>6</v>
+      <c r="D44" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1">
         <v>0.94460205732920899</v>
@@ -1031,13 +991,13 @@
       <c r="C45" s="1">
         <v>0.90240386019160257</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
+      <c r="D45" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1">
         <v>0.81242370500503924</v>
@@ -1045,13 +1005,13 @@
       <c r="C46" s="1">
         <v>0.73414951238304549</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
+      <c r="D46" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -1059,8 +1019,8 @@
       <c r="C47" s="1">
         <v>1</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
+      <c r="D47" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -66414,5 +66374,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>